--- a/profiling/5.DMR-tb1/03-08-2020/markers_used_for_fine_mapping.xlsx
+++ b/profiling/5.DMR-tb1/03-08-2020/markers_used_for_fine_mapping.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Primer</t>
   </si>
@@ -222,6 +222,10 @@
   </si>
   <si>
     <t>TB1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1188,7 +1192,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1456,263 +1460,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
+        <v>270391269.5</v>
+      </c>
+      <c r="D2" s="8">
         <v>270391258</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="8">
         <v>270391724</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="8"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>1</v>
       </c>
-      <c r="J2" s="8">
+      <c r="K2" s="8">
         <v>270489676</v>
       </c>
-      <c r="K2" s="8">
+      <c r="L2" s="8">
         <v>270495676</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
+        <v>270484395.5</v>
+      </c>
+      <c r="D3" s="8">
         <v>270483775</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="8">
         <v>270484404</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="8"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
+        <v>270486364.5</v>
+      </c>
+      <c r="D4" s="8">
         <v>270486355</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="8">
         <v>270486533</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="8"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
+        <v>270554557</v>
+      </c>
+      <c r="D5" s="8">
         <v>270489507</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="8">
         <v>270554803</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="6">
-        <f>D5-C5</f>
-        <v>65296</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="J5" s="8">
+      <c r="K5" s="8">
         <v>270553676</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>270554776</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
+        <v>270489871.5</v>
+      </c>
+      <c r="D6" s="8">
         <v>270489507</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="8">
         <v>270489882</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>270512569</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>270513049</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
+        <v>270494926.5</v>
+      </c>
+      <c r="D7" s="8">
         <v>270494917</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="8">
         <v>270495236</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
+        <v>270496670.5</v>
+      </c>
+      <c r="D8" s="8">
         <v>270496661</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="8">
         <v>270497092</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="8"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="8">
+        <v>270553082.5</v>
+      </c>
+      <c r="D9" s="8">
         <v>270553071</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="8">
         <v>270553414</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" display="http://ensembl.gramene.org/Zea_mays/Gene/Summary?g=Zm00001d033673;r=1:270553676-270554776;db=core"/>
-    <hyperlink ref="J5" r:id="rId2" display="http://ensembl.gramene.org/Zea_mays/Location/View?r=1:270553456-270554996;g=Zm00001d033673;db="/>
+    <hyperlink ref="I5" r:id="rId1" display="http://ensembl.gramene.org/Zea_mays/Gene/Summary?g=Zm00001d033673;r=1:270553676-270554776;db=core"/>
+    <hyperlink ref="K5" r:id="rId2" display="http://ensembl.gramene.org/Zea_mays/Location/View?r=1:270553456-270554996;g=Zm00001d033673;db="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
